--- a/11-CollaborationList/STFC.xlsx
+++ b/11-CollaborationList/STFC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D3B8EB-6141-654F-AAA6-393337D743BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54897933-CC18-5B4B-933B-915B605EA0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
   </bookViews>
   <sheets>
     <sheet name="STFC" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -280,9 +280,6 @@
     <t>S.</t>
   </si>
   <si>
-    <t>s.machida@rl.ac.uk</t>
-  </si>
-  <si>
     <t>S.Machida</t>
   </si>
   <si>
@@ -350,6 +347,21 @@
   </si>
   <si>
     <t>M. Johnson</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Sabate-Gilarte</t>
+  </si>
+  <si>
+    <t>M.Sabate-Gilarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marta.sabate-gilarte@stfc.ac.uk </t>
+  </si>
+  <si>
+    <t>shinji.machida@stfc.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -905,8 +917,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O17" totalsRowShown="0">
-  <autoFilter ref="A1:O17" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O18" totalsRowShown="0">
+  <autoFilter ref="A1:O18" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{03F42022-D94F-B348-B522-BCF83D34B184}" name="Title"/>
     <tableColumn id="2" xr3:uid="{8F27C502-ECBA-C148-9D3A-52FF29D0F2B3}" name="Name"/>
@@ -1245,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A6050-7444-6342-A209-EE6F7E69E724}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1369,7 +1381,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1398,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1531,19 +1543,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -1555,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1563,19 +1575,19 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
         <v>99</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -1592,19 +1604,19 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -1621,19 +1633,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
         <v>105</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
         <v>108</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1668,7 +1680,7 @@
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1697,7 +1709,7 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1755,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1775,18 +1787,47 @@
         <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
         <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
@@ -1795,10 +1836,11 @@
     <hyperlink ref="E16" r:id="rId1" xr:uid="{AC4E2BC6-54C6-804B-8AC4-11BFC32D3D08}"/>
     <hyperlink ref="E17" r:id="rId2" xr:uid="{8BC8A6A2-F5BD-2547-BB8C-90DAB3A3D56D}"/>
     <hyperlink ref="E10" r:id="rId3" xr:uid="{919352C9-DB7D-254B-BC54-8C8A6F4AB6D7}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{AD7F910A-CB04-CA4C-A0E0-7DEF7692C38E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/STFC.xlsx
+++ b/11-CollaborationList/STFC.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54897933-CC18-5B4B-933B-915B605EA0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A28F8C-588E-3949-B6AF-B0BD93A59C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26520" windowHeight="28040" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
   </bookViews>
   <sheets>
     <sheet name="STFC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>Title</t>
   </si>
@@ -88,21 +101,6 @@
     <t>STFC-ISIS</t>
   </si>
   <si>
-    <t xml:space="preserve">Christopher </t>
-  </si>
-  <si>
-    <t>Rogers</t>
-  </si>
-  <si>
-    <t>C.T.</t>
-  </si>
-  <si>
-    <t>chris.rogers@STFC.AC.UK</t>
-  </si>
-  <si>
-    <t>C. Rogers</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -256,112 +254,181 @@
     <t>Technology Department, STFC Daresbury Laboratory, Daresbury, Cheshire, WA4 4AD, UK</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Posthuma de Boer</t>
-  </si>
-  <si>
-    <t>D.</t>
-  </si>
-  <si>
-    <t>david.posthuma-de-boer@stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>D.Posthuma de Boer</t>
-  </si>
-  <si>
-    <t>Shinji</t>
-  </si>
-  <si>
-    <t>Machida</t>
+    <t>ISIS Neutron and Muon Source, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Particle Physics Department, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Central Laser Facility, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Pugh</t>
+  </si>
+  <si>
+    <t>chloe.pugh@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>C. Pugh</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Goulden</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>andy.goulden@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>A. Goulden</t>
+  </si>
+  <si>
+    <t>Clive</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>clive.hill@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>C. Hill</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>mark.johnson@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>M. Johnson</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Sabate-Gilarte</t>
+  </si>
+  <si>
+    <t>M.Sabate-Gilarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marta.sabate-gilarte@stfc.ac.uk </t>
+  </si>
+  <si>
+    <t>Vick</t>
+  </si>
+  <si>
+    <t>andrew.vick@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>A. Vick</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Middleman</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
+    <t>keith.middleman@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>K. Middleman</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Griffiths</t>
   </si>
   <si>
     <t>S.</t>
   </si>
   <si>
-    <t>S.Machida</t>
-  </si>
-  <si>
-    <t>ISIS Neutron and Muon Source, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
-  </si>
-  <si>
-    <t>Particle Physics Department, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
-  </si>
-  <si>
-    <t>Central Laser Facility, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Pugh</t>
-  </si>
-  <si>
-    <t>chloe.pugh@stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>C. Pugh</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Goulden</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>andy.goulden@stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>A. Goulden</t>
-  </si>
-  <si>
-    <t>Clive</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>clive.hill@stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>C. Hill</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>M.</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>mark.johnson@stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>M. Johnson</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Sabate-Gilarte</t>
-  </si>
-  <si>
-    <t>M.Sabate-Gilarte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marta.sabate-gilarte@stfc.ac.uk </t>
-  </si>
-  <si>
-    <t>shinji.machida@stfc.ac.uk</t>
+    <t>steve.griffiths@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>S. Griffiths</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>graham.cox@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>G. Cox</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>Buckley</t>
+  </si>
+  <si>
+    <t>rachael.buckley@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>R. Buckley</t>
+  </si>
+  <si>
+    <t>Bebbington</t>
+  </si>
+  <si>
+    <t>james.bebbington@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>J. Bebbington</t>
+  </si>
+  <si>
+    <t>Massimo</t>
+  </si>
+  <si>
+    <t>Noro</t>
+  </si>
+  <si>
+    <t>massimo.noro@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>M. Noro</t>
+  </si>
+  <si>
+    <t>STFC-BID</t>
+  </si>
+  <si>
+    <t>Business Innovation Department, STFC Daresbury Laboratory, Daresbury, Cheshire, WA4 4AD, UK</t>
   </si>
 </sst>
 </file>
@@ -917,8 +984,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O18" totalsRowShown="0">
-  <autoFilter ref="A1:O18" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O22" totalsRowShown="0">
+  <autoFilter ref="A1:O22" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O22">
+    <sortCondition ref="G1:G22"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{03F42022-D94F-B348-B522-BCF83D34B184}" name="Title"/>
     <tableColumn id="2" xr3:uid="{8F27C502-ECBA-C148-9D3A-52FF29D0F2B3}" name="Name"/>
@@ -1257,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A6050-7444-6342-A209-EE6F7E69E724}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,31 +1401,34 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1363,25 +1436,25 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1392,57 +1465,57 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1450,28 +1523,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1479,60 +1552,57 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I7">
         <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1540,60 +1610,57 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1601,28 +1668,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1630,28 +1697,28 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1659,28 +1726,28 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1688,28 +1755,28 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1717,28 +1784,28 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
         <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1746,101 +1813,225 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{AC4E2BC6-54C6-804B-8AC4-11BFC32D3D08}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{8BC8A6A2-F5BD-2547-BB8C-90DAB3A3D56D}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{919352C9-DB7D-254B-BC54-8C8A6F4AB6D7}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{AD7F910A-CB04-CA4C-A0E0-7DEF7692C38E}"/>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{AD7F910A-CB04-CA4C-A0E0-7DEF7692C38E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{A81EDE23-5F17-AE4E-9200-10145C855A02}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{6AC7983C-9D5B-0244-A479-B61F3945B723}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{8961AC23-922B-0E47-A1C4-0B279AFDD90F}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{8C032F8F-B3E4-9F47-86B9-9CC88036AC65}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{86C3F156-618B-7B40-A805-C1A87D019074}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{910D731D-037E-3B43-B181-FADFB07D4569}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{1505D96B-B867-EA4F-868F-709A9E179091}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{401469A0-35B4-7D4F-8FFD-050F149439DD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/STFC.xlsx
+++ b/11-CollaborationList/STFC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050109932576/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A28F8C-588E-3949-B6AF-B0BD93A59C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{07A28F8C-588E-3949-B6AF-B0BD93A59C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2505B9A8-697A-4F45-9B58-B9F9D5EBE04D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26520" windowHeight="28040" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
   </bookViews>
@@ -987,7 +987,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O22" totalsRowShown="0">
   <autoFilter ref="A1:O22" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O22">
-    <sortCondition ref="G1:G22"/>
+    <sortCondition ref="C1:C22"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{03F42022-D94F-B348-B522-BCF83D34B184}" name="Title"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A6050-7444-6342-A209-EE6F7E69E724}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,54 +1401,51 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I2">
         <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -1462,54 +1459,51 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
@@ -1523,22 +1517,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -1549,31 +1543,34 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1581,22 +1578,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -1610,28 +1607,28 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1639,28 +1636,28 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1668,22 +1665,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
@@ -1697,28 +1694,28 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1726,22 +1723,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
         <v>47</v>
@@ -1784,28 +1781,28 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1816,25 +1813,25 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1845,60 +1842,60 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17">
         <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18">
         <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1932,57 +1929,60 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20">
         <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2019,14 +2019,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{AD7F910A-CB04-CA4C-A0E0-7DEF7692C38E}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{A81EDE23-5F17-AE4E-9200-10145C855A02}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{6AC7983C-9D5B-0244-A479-B61F3945B723}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{8961AC23-922B-0E47-A1C4-0B279AFDD90F}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{8C032F8F-B3E4-9F47-86B9-9CC88036AC65}"/>
-    <hyperlink ref="E11" r:id="rId6" xr:uid="{86C3F156-618B-7B40-A805-C1A87D019074}"/>
-    <hyperlink ref="E12" r:id="rId7" xr:uid="{910D731D-037E-3B43-B181-FADFB07D4569}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{1505D96B-B867-EA4F-868F-709A9E179091}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{AD7F910A-CB04-CA4C-A0E0-7DEF7692C38E}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{A81EDE23-5F17-AE4E-9200-10145C855A02}"/>
+    <hyperlink ref="E21" r:id="rId3" xr:uid="{6AC7983C-9D5B-0244-A479-B61F3945B723}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{8961AC23-922B-0E47-A1C4-0B279AFDD90F}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{8C032F8F-B3E4-9F47-86B9-9CC88036AC65}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{86C3F156-618B-7B40-A805-C1A87D019074}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{910D731D-037E-3B43-B181-FADFB07D4569}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{1505D96B-B867-EA4F-868F-709A9E179091}"/>
     <hyperlink ref="E14" r:id="rId9" xr:uid="{401469A0-35B4-7D4F-8FFD-050F149439DD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
